--- a/data/pca/factorExposure/factorExposure_2015-12-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01674889459881283</v>
+        <v>0.01754932973598151</v>
       </c>
       <c r="C2">
-        <v>0.02860187597464291</v>
+        <v>-0.03123207141340938</v>
       </c>
       <c r="D2">
-        <v>-0.08752624806518478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1148477607463207</v>
+      </c>
+      <c r="E2">
+        <v>-0.08009155548828623</v>
+      </c>
+      <c r="F2">
+        <v>0.006470341253505488</v>
+      </c>
+      <c r="G2">
+        <v>0.05588412310431288</v>
+      </c>
+      <c r="H2">
+        <v>0.09405797353952543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01448799192421383</v>
+        <v>0.008409252771331173</v>
       </c>
       <c r="C3">
-        <v>0.05631598834511951</v>
+        <v>-0.03512452042336976</v>
       </c>
       <c r="D3">
-        <v>-0.1404986729499526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08169174476187635</v>
+      </c>
+      <c r="E3">
+        <v>-0.08500405818186391</v>
+      </c>
+      <c r="F3">
+        <v>0.04123806653606807</v>
+      </c>
+      <c r="G3">
+        <v>0.08770989466894812</v>
+      </c>
+      <c r="H3">
+        <v>0.02466052054471945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04743811868310223</v>
+        <v>0.05303796234327612</v>
       </c>
       <c r="C4">
-        <v>0.0279546787128781</v>
+        <v>-0.06121203711652565</v>
       </c>
       <c r="D4">
-        <v>-0.1241872961960173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1369905662571817</v>
+      </c>
+      <c r="E4">
+        <v>-0.0615056482000049</v>
+      </c>
+      <c r="F4">
+        <v>0.0183884356974969</v>
+      </c>
+      <c r="G4">
+        <v>-0.02587430189365405</v>
+      </c>
+      <c r="H4">
+        <v>-0.02603018137839654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04449671251757165</v>
+        <v>0.04092042698093359</v>
       </c>
       <c r="C6">
-        <v>0.0032450940310698</v>
+        <v>-0.02546387163401512</v>
       </c>
       <c r="D6">
-        <v>-0.1251827463346184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1281537130340311</v>
+      </c>
+      <c r="E6">
+        <v>-0.04010282287054634</v>
+      </c>
+      <c r="F6">
+        <v>0.01507170626239584</v>
+      </c>
+      <c r="G6">
+        <v>0.01654046678000588</v>
+      </c>
+      <c r="H6">
+        <v>0.006920664496879269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02140405340171731</v>
+        <v>0.01561964726743402</v>
       </c>
       <c r="C7">
-        <v>0.006283083745946799</v>
+        <v>-0.02839892982778544</v>
       </c>
       <c r="D7">
-        <v>-0.08636595688641377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09153716850139393</v>
+      </c>
+      <c r="E7">
+        <v>-0.0442795659364538</v>
+      </c>
+      <c r="F7">
+        <v>0.01352061996145276</v>
+      </c>
+      <c r="G7">
+        <v>-0.01476536459495534</v>
+      </c>
+      <c r="H7">
+        <v>0.1043688460127327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009680968271612356</v>
+        <v>0.008172215199435845</v>
       </c>
       <c r="C8">
-        <v>0.02856488642151625</v>
+        <v>-0.0364654754534311</v>
       </c>
       <c r="D8">
-        <v>-0.06220363704570134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07466102803966568</v>
+      </c>
+      <c r="E8">
+        <v>-0.04239775226202332</v>
+      </c>
+      <c r="F8">
+        <v>0.02939767689910192</v>
+      </c>
+      <c r="G8">
+        <v>0.009447425189269384</v>
+      </c>
+      <c r="H8">
+        <v>0.03219441182467932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03907210622379315</v>
+        <v>0.04094827462498839</v>
       </c>
       <c r="C9">
-        <v>0.02945154059084402</v>
+        <v>-0.05608895082157155</v>
       </c>
       <c r="D9">
-        <v>-0.1070567001610363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.117731211761597</v>
+      </c>
+      <c r="E9">
+        <v>-0.04526520638838128</v>
+      </c>
+      <c r="F9">
+        <v>-0.001441047084291072</v>
+      </c>
+      <c r="G9">
+        <v>-0.01777819157164297</v>
+      </c>
+      <c r="H9">
+        <v>0.009452633381172072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09778769696058587</v>
+        <v>0.132611344072751</v>
       </c>
       <c r="C10">
-        <v>-0.1989564013762133</v>
+        <v>0.1921479153138653</v>
       </c>
       <c r="D10">
-        <v>0.01067070094368101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004605776588035024</v>
+      </c>
+      <c r="E10">
+        <v>-0.05166311217563371</v>
+      </c>
+      <c r="F10">
+        <v>0.01311167564342623</v>
+      </c>
+      <c r="G10">
+        <v>-0.04031288478348367</v>
+      </c>
+      <c r="H10">
+        <v>-0.007132962604934494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03322641462462059</v>
+        <v>0.02877219146672444</v>
       </c>
       <c r="C11">
-        <v>0.03471057525849256</v>
+        <v>-0.04177239694489306</v>
       </c>
       <c r="D11">
-        <v>-0.06089525753872452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05957754653908524</v>
+      </c>
+      <c r="E11">
+        <v>-0.007185350507478091</v>
+      </c>
+      <c r="F11">
+        <v>0.006150487496942286</v>
+      </c>
+      <c r="G11">
+        <v>-0.001089805036187068</v>
+      </c>
+      <c r="H11">
+        <v>0.05244003443640986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03742615759743983</v>
+        <v>0.03281806612470174</v>
       </c>
       <c r="C12">
-        <v>0.0344971165913962</v>
+        <v>-0.0438197288538108</v>
       </c>
       <c r="D12">
-        <v>-0.05880424877527607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05793131270868479</v>
+      </c>
+      <c r="E12">
+        <v>-0.01789428484652488</v>
+      </c>
+      <c r="F12">
+        <v>0.00061614581344751</v>
+      </c>
+      <c r="G12">
+        <v>-0.003651984350675514</v>
+      </c>
+      <c r="H12">
+        <v>0.06399188741171269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01387731407775055</v>
+        <v>0.01951036786861788</v>
       </c>
       <c r="C13">
-        <v>0.02261617874414516</v>
+        <v>-0.03655785405797297</v>
       </c>
       <c r="D13">
-        <v>-0.1199225169419286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1413734781675106</v>
+      </c>
+      <c r="E13">
+        <v>-0.07622522341280125</v>
+      </c>
+      <c r="F13">
+        <v>0.02482247464396611</v>
+      </c>
+      <c r="G13">
+        <v>0.003511754269022446</v>
+      </c>
+      <c r="H13">
+        <v>0.09269303850827097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01022009035580649</v>
+        <v>0.007481731677666667</v>
       </c>
       <c r="C14">
-        <v>0.01185336534457982</v>
+        <v>-0.02281068675444111</v>
       </c>
       <c r="D14">
-        <v>-0.07892331193679369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08425712062202066</v>
+      </c>
+      <c r="E14">
+        <v>-0.04199695315929304</v>
+      </c>
+      <c r="F14">
+        <v>-0.01327231547871677</v>
+      </c>
+      <c r="G14">
+        <v>0.003735675549897437</v>
+      </c>
+      <c r="H14">
+        <v>0.1007095055497718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.00164251800292603</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008108996546118762</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02736952849297532</v>
+      </c>
+      <c r="E15">
+        <v>-0.006690498565366449</v>
+      </c>
+      <c r="F15">
+        <v>-0.003013573239794254</v>
+      </c>
+      <c r="G15">
+        <v>0.007490851552100366</v>
+      </c>
+      <c r="H15">
+        <v>0.01241557056121295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03509029354443039</v>
+        <v>0.02958089194678778</v>
       </c>
       <c r="C16">
-        <v>0.03581145647302432</v>
+        <v>-0.04253224231984568</v>
       </c>
       <c r="D16">
-        <v>-0.06525577939651236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06120064590857529</v>
+      </c>
+      <c r="E16">
+        <v>-0.02108086599098817</v>
+      </c>
+      <c r="F16">
+        <v>-0.00710536632552604</v>
+      </c>
+      <c r="G16">
+        <v>0.003911145287753546</v>
+      </c>
+      <c r="H16">
+        <v>0.05896556323301994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.00999151600944153</v>
+        <v>0.010992615820032</v>
       </c>
       <c r="C19">
-        <v>0.01572138172894517</v>
+        <v>-0.0204279159107252</v>
       </c>
       <c r="D19">
-        <v>-0.1638902218395084</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1285644556103184</v>
+      </c>
+      <c r="E19">
+        <v>-0.07175197552382422</v>
+      </c>
+      <c r="F19">
+        <v>-0.02744135357734018</v>
+      </c>
+      <c r="G19">
+        <v>0.01809480266275389</v>
+      </c>
+      <c r="H19">
+        <v>0.05047984901537559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01851451004778002</v>
+        <v>0.01572593938509967</v>
       </c>
       <c r="C20">
-        <v>0.01567998364975824</v>
+        <v>-0.03110950396046158</v>
       </c>
       <c r="D20">
-        <v>-0.084278365747946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09454540027321305</v>
+      </c>
+      <c r="E20">
+        <v>-0.06189225655259299</v>
+      </c>
+      <c r="F20">
+        <v>-0.007583522343030715</v>
+      </c>
+      <c r="G20">
+        <v>6.647839773317071e-05</v>
+      </c>
+      <c r="H20">
+        <v>0.05622201360166242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.008962561425195</v>
+        <v>0.01465357167767282</v>
       </c>
       <c r="C21">
-        <v>0.01439835947974322</v>
+        <v>-0.03422118158644197</v>
       </c>
       <c r="D21">
-        <v>-0.1199360118301951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1355383169839612</v>
+      </c>
+      <c r="E21">
+        <v>-0.09882209989251677</v>
+      </c>
+      <c r="F21">
+        <v>-0.01430121718073346</v>
+      </c>
+      <c r="G21">
+        <v>-0.03508788035226252</v>
+      </c>
+      <c r="H21">
+        <v>0.1095320840436766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002293036093641818</v>
+        <v>0.005031172095234194</v>
       </c>
       <c r="C22">
-        <v>0.01776103958687251</v>
+        <v>-0.03871474603266895</v>
       </c>
       <c r="D22">
-        <v>-0.07302143986238466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1245027352212504</v>
+      </c>
+      <c r="E22">
+        <v>-0.03268444345311484</v>
+      </c>
+      <c r="F22">
+        <v>0.0762554540187392</v>
+      </c>
+      <c r="G22">
+        <v>0.05826835072221909</v>
+      </c>
+      <c r="H22">
+        <v>-0.02713206047181528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002326596751144588</v>
+        <v>0.00512358074236414</v>
       </c>
       <c r="C23">
-        <v>0.01775221488573104</v>
+        <v>-0.03916323676005937</v>
       </c>
       <c r="D23">
-        <v>-0.07248617541774068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.123964808435071</v>
+      </c>
+      <c r="E23">
+        <v>-0.03289575530957902</v>
+      </c>
+      <c r="F23">
+        <v>0.0761628963719438</v>
+      </c>
+      <c r="G23">
+        <v>0.05740223014513754</v>
+      </c>
+      <c r="H23">
+        <v>-0.02736181096177433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03407329449586173</v>
+        <v>0.0313945655879723</v>
       </c>
       <c r="C24">
-        <v>0.03914618304946958</v>
+        <v>-0.05231093094021858</v>
       </c>
       <c r="D24">
-        <v>-0.06829846685664709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06637949180063514</v>
+      </c>
+      <c r="E24">
+        <v>-0.0242194085781634</v>
+      </c>
+      <c r="F24">
+        <v>-0.004943039397620398</v>
+      </c>
+      <c r="G24">
+        <v>-0.006822279181607334</v>
+      </c>
+      <c r="H24">
+        <v>0.06922497736766353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04117860033724153</v>
+        <v>0.03619893463609408</v>
       </c>
       <c r="C25">
-        <v>0.0445388897089326</v>
+        <v>-0.05166245062652301</v>
       </c>
       <c r="D25">
-        <v>-0.06879441592581211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06318194011731545</v>
+      </c>
+      <c r="E25">
+        <v>-0.02538736016685757</v>
+      </c>
+      <c r="F25">
+        <v>0.006166489958253885</v>
+      </c>
+      <c r="G25">
+        <v>-0.01314311023000983</v>
+      </c>
+      <c r="H25">
+        <v>0.05720633182161632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02252761903062494</v>
+        <v>0.02080366946551156</v>
       </c>
       <c r="C26">
-        <v>0.001336426418607521</v>
+        <v>-0.0160296765441121</v>
       </c>
       <c r="D26">
-        <v>-0.05225167530826593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06478885681396464</v>
+      </c>
+      <c r="E26">
+        <v>-0.03246280263089606</v>
+      </c>
+      <c r="F26">
+        <v>-0.006070478825749763</v>
+      </c>
+      <c r="G26">
+        <v>0.007126657318288514</v>
+      </c>
+      <c r="H26">
+        <v>0.05713315208185985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1349207989000423</v>
+        <v>0.1864657523062819</v>
       </c>
       <c r="C28">
-        <v>-0.2755110871094351</v>
+        <v>0.2578248007884327</v>
       </c>
       <c r="D28">
-        <v>0.05697277710997054</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02009435459907067</v>
+      </c>
+      <c r="E28">
+        <v>-0.07374089598280398</v>
+      </c>
+      <c r="F28">
+        <v>-0.005649056870420103</v>
+      </c>
+      <c r="G28">
+        <v>-0.07684835257165155</v>
+      </c>
+      <c r="H28">
+        <v>0.006416037533656323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003918902449238919</v>
+        <v>0.006361481936494559</v>
       </c>
       <c r="C29">
-        <v>0.01203285899161587</v>
+        <v>-0.02227844467374827</v>
       </c>
       <c r="D29">
-        <v>-0.06171715386795173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07846937046396214</v>
+      </c>
+      <c r="E29">
+        <v>-0.04463336327109189</v>
+      </c>
+      <c r="F29">
+        <v>0.0002692337302880222</v>
+      </c>
+      <c r="G29">
+        <v>-0.01321717831763802</v>
+      </c>
+      <c r="H29">
+        <v>0.1020718770555443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04237712710654144</v>
+        <v>0.04318122025668994</v>
       </c>
       <c r="C30">
-        <v>0.02624103041862817</v>
+        <v>-0.05587808232709144</v>
       </c>
       <c r="D30">
-        <v>-0.1607351033651833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1754357007661222</v>
+      </c>
+      <c r="E30">
+        <v>-0.03242961983319125</v>
+      </c>
+      <c r="F30">
+        <v>0.005573504776244658</v>
+      </c>
+      <c r="G30">
+        <v>0.04145514791021006</v>
+      </c>
+      <c r="H30">
+        <v>0.01139296253630905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06630177335246572</v>
+        <v>0.0572230202306397</v>
       </c>
       <c r="C31">
-        <v>0.04618539929404458</v>
+        <v>-0.07146270964935424</v>
       </c>
       <c r="D31">
-        <v>-0.06159258079904253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05331898740321837</v>
+      </c>
+      <c r="E31">
+        <v>-0.04231037280374698</v>
+      </c>
+      <c r="F31">
+        <v>0.04131064712232323</v>
+      </c>
+      <c r="G31">
+        <v>-0.00773012597622985</v>
+      </c>
+      <c r="H31">
+        <v>0.02834965368588943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008474541831162801</v>
+        <v>0.009219654132367309</v>
       </c>
       <c r="C32">
-        <v>-0.004482007576692744</v>
+        <v>-0.01272694833786603</v>
       </c>
       <c r="D32">
-        <v>-0.05082069612129812</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09121611228356249</v>
+      </c>
+      <c r="E32">
+        <v>-0.0950513279040163</v>
+      </c>
+      <c r="F32">
+        <v>-0.007420625276124667</v>
+      </c>
+      <c r="G32">
+        <v>-0.05115929206062115</v>
+      </c>
+      <c r="H32">
+        <v>0.09544331499185177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02552147886127103</v>
+        <v>0.02445463241313141</v>
       </c>
       <c r="C33">
-        <v>0.01803060860378909</v>
+        <v>-0.03989036612324037</v>
       </c>
       <c r="D33">
-        <v>-0.1302841122121915</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1323015981198907</v>
+      </c>
+      <c r="E33">
+        <v>-0.05928957336837071</v>
+      </c>
+      <c r="F33">
+        <v>0.01536437453291033</v>
+      </c>
+      <c r="G33">
+        <v>0.001261305640077287</v>
+      </c>
+      <c r="H33">
+        <v>0.06281930069997077</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03087998901688021</v>
+        <v>0.02869930675873444</v>
       </c>
       <c r="C34">
-        <v>0.05522720370817797</v>
+        <v>-0.05995235331402751</v>
       </c>
       <c r="D34">
-        <v>-0.06814735570922464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06100361221718418</v>
+      </c>
+      <c r="E34">
+        <v>-0.006125939203860704</v>
+      </c>
+      <c r="F34">
+        <v>-0.004131364587211603</v>
+      </c>
+      <c r="G34">
+        <v>-0.009249132453010794</v>
+      </c>
+      <c r="H34">
+        <v>0.07551416541187433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006183540742633425</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002032249599323711</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.003106936545784424</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004793726790662202</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002783516772470839</v>
+      </c>
+      <c r="G35">
+        <v>7.475584066223179e-06</v>
+      </c>
+      <c r="H35">
+        <v>0.002975532078436207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02049774646111976</v>
+        <v>0.01837656697147715</v>
       </c>
       <c r="C36">
-        <v>-0.0008370348179911924</v>
+        <v>-0.01457090000783831</v>
       </c>
       <c r="D36">
-        <v>-0.06973595529137772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0771281203573506</v>
+      </c>
+      <c r="E36">
+        <v>-0.0410441967306881</v>
+      </c>
+      <c r="F36">
+        <v>-0.004971362548964978</v>
+      </c>
+      <c r="G36">
+        <v>-0.009114160536808526</v>
+      </c>
+      <c r="H36">
+        <v>0.05281231737402522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02699717924775787</v>
+        <v>0.02210918663783261</v>
       </c>
       <c r="C38">
-        <v>0.01624331719613103</v>
+        <v>-0.02055409069979158</v>
       </c>
       <c r="D38">
-        <v>-0.05358740042102952</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05866393755282167</v>
+      </c>
+      <c r="E38">
+        <v>-0.044240559019734</v>
+      </c>
+      <c r="F38">
+        <v>-0.004909384015526259</v>
+      </c>
+      <c r="G38">
+        <v>0.03562937464335545</v>
+      </c>
+      <c r="H38">
+        <v>0.03579089551207201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04038505319480434</v>
+        <v>0.0371076085480842</v>
       </c>
       <c r="C39">
-        <v>0.0455630880753598</v>
+        <v>-0.06168668218771724</v>
       </c>
       <c r="D39">
-        <v>-0.08939958426033165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1030481678830718</v>
+      </c>
+      <c r="E39">
+        <v>-0.02095378875899449</v>
+      </c>
+      <c r="F39">
+        <v>-0.02202299324074292</v>
+      </c>
+      <c r="G39">
+        <v>0.007392773628050939</v>
+      </c>
+      <c r="H39">
+        <v>0.08798120646393601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01637055029213529</v>
+        <v>0.01483903261094091</v>
       </c>
       <c r="C40">
-        <v>0.03652784846776334</v>
+        <v>-0.0354451950182854</v>
       </c>
       <c r="D40">
-        <v>-0.0752327730198209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08569910013855794</v>
+      </c>
+      <c r="E40">
+        <v>-0.08208582522146474</v>
+      </c>
+      <c r="F40">
+        <v>0.05011718476117024</v>
+      </c>
+      <c r="G40">
+        <v>0.0307386631561293</v>
+      </c>
+      <c r="H40">
+        <v>0.1583399256138668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02552787952982661</v>
+        <v>0.02296575439633668</v>
       </c>
       <c r="C41">
-        <v>-0.01041192996279913</v>
+        <v>-0.007452466074909367</v>
       </c>
       <c r="D41">
-        <v>-0.06638213634790227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05738355766181098</v>
+      </c>
+      <c r="E41">
+        <v>-0.05628245915290394</v>
+      </c>
+      <c r="F41">
+        <v>-0.002386940975180645</v>
+      </c>
+      <c r="G41">
+        <v>0.00743617537642604</v>
+      </c>
+      <c r="H41">
+        <v>0.04254363933213333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03503149652866365</v>
+        <v>0.02560645400785912</v>
       </c>
       <c r="C43">
-        <v>-0.0005205498555798739</v>
+        <v>-0.0172752030170375</v>
       </c>
       <c r="D43">
-        <v>-0.1047439962592272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08837365212662411</v>
+      </c>
+      <c r="E43">
+        <v>-0.04438435873475221</v>
+      </c>
+      <c r="F43">
+        <v>0.003586788492809015</v>
+      </c>
+      <c r="G43">
+        <v>0.01110881671945601</v>
+      </c>
+      <c r="H43">
+        <v>0.06025259838829557</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0125461783591958</v>
+        <v>0.0166305539388197</v>
       </c>
       <c r="C44">
-        <v>0.03510469295214502</v>
+        <v>-0.04123353402433949</v>
       </c>
       <c r="D44">
-        <v>-0.0845275347492371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09603500254394624</v>
+      </c>
+      <c r="E44">
+        <v>-0.07926617666308489</v>
+      </c>
+      <c r="F44">
+        <v>-0.003125294592997274</v>
+      </c>
+      <c r="G44">
+        <v>-0.009260633547907477</v>
+      </c>
+      <c r="H44">
+        <v>0.07127556742668426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01888146240998781</v>
+        <v>0.01636862983916332</v>
       </c>
       <c r="C46">
-        <v>0.01266315609058598</v>
+        <v>-0.0289150522239969</v>
       </c>
       <c r="D46">
-        <v>-0.07191618207732541</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08833690785675251</v>
+      </c>
+      <c r="E46">
+        <v>-0.04788658227042755</v>
+      </c>
+      <c r="F46">
+        <v>-0.02259192186677838</v>
+      </c>
+      <c r="G46">
+        <v>-0.02060132759044274</v>
+      </c>
+      <c r="H46">
+        <v>0.1019670702760993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09250722723085196</v>
+        <v>0.086253942950041</v>
       </c>
       <c r="C47">
-        <v>0.0651941567281908</v>
+        <v>-0.08782213252844195</v>
       </c>
       <c r="D47">
-        <v>-0.04057903717586171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03318978670293542</v>
+      </c>
+      <c r="E47">
+        <v>-0.03932342354564812</v>
+      </c>
+      <c r="F47">
+        <v>0.0224439966906099</v>
+      </c>
+      <c r="G47">
+        <v>-0.05861710239676401</v>
+      </c>
+      <c r="H47">
+        <v>0.007519427445286954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02066423813047612</v>
+        <v>0.01939824778350371</v>
       </c>
       <c r="C48">
-        <v>0.002998785952985079</v>
+        <v>-0.01825121916952126</v>
       </c>
       <c r="D48">
-        <v>-0.0694133717281613</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07867614563226877</v>
+      </c>
+      <c r="E48">
+        <v>-0.05633574892853857</v>
+      </c>
+      <c r="F48">
+        <v>-0.01523651059302657</v>
+      </c>
+      <c r="G48">
+        <v>-0.004794233718891519</v>
+      </c>
+      <c r="H48">
+        <v>0.05312916393680306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07725303618101886</v>
+        <v>0.0616243553574474</v>
       </c>
       <c r="C50">
-        <v>0.05799336084217444</v>
+        <v>-0.06906377477831667</v>
       </c>
       <c r="D50">
-        <v>-0.06689355475280724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05843456099873764</v>
+      </c>
+      <c r="E50">
+        <v>-0.04862149540662518</v>
+      </c>
+      <c r="F50">
+        <v>0.04202532473832361</v>
+      </c>
+      <c r="G50">
+        <v>0.009091259223823813</v>
+      </c>
+      <c r="H50">
+        <v>0.03036356432014556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007744131426155355</v>
+        <v>0.00744578044880541</v>
       </c>
       <c r="C51">
-        <v>0.009525019651171369</v>
+        <v>-0.01357047937900245</v>
       </c>
       <c r="D51">
-        <v>-0.07784720373451388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08650382056924985</v>
+      </c>
+      <c r="E51">
+        <v>-0.03308920955193891</v>
+      </c>
+      <c r="F51">
+        <v>-0.003705131672240567</v>
+      </c>
+      <c r="G51">
+        <v>0.01439585334333821</v>
+      </c>
+      <c r="H51">
+        <v>0.07943516158161967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07563471544265218</v>
+        <v>0.08708421657896265</v>
       </c>
       <c r="C53">
-        <v>0.087171377698085</v>
+        <v>-0.09935309941945646</v>
       </c>
       <c r="D53">
-        <v>-0.01845831304718069</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004278590635866724</v>
+      </c>
+      <c r="E53">
+        <v>-0.09894825310516342</v>
+      </c>
+      <c r="F53">
+        <v>0.02729982570632912</v>
+      </c>
+      <c r="G53">
+        <v>-0.09708006284972327</v>
+      </c>
+      <c r="H53">
+        <v>-0.02130362137021056</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03428023979921183</v>
+        <v>0.02728178312411082</v>
       </c>
       <c r="C54">
-        <v>0.02047251281545614</v>
+        <v>-0.034234080590974</v>
       </c>
       <c r="D54">
-        <v>-0.08219492577815178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08822755071572821</v>
+      </c>
+      <c r="E54">
+        <v>-0.04802140108808187</v>
+      </c>
+      <c r="F54">
+        <v>-0.0182714900783626</v>
+      </c>
+      <c r="G54">
+        <v>0.008163779627939603</v>
+      </c>
+      <c r="H54">
+        <v>0.1097862386979325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08599509328286514</v>
+        <v>0.08500458239967369</v>
       </c>
       <c r="C55">
-        <v>0.06555761712546496</v>
+        <v>-0.08034754674326182</v>
       </c>
       <c r="D55">
-        <v>0.002169662291271727</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01256585295278723</v>
+      </c>
+      <c r="E55">
+        <v>-0.05905812542005166</v>
+      </c>
+      <c r="F55">
+        <v>0.03071466035517036</v>
+      </c>
+      <c r="G55">
+        <v>-0.04670386684798712</v>
+      </c>
+      <c r="H55">
+        <v>-0.02285127011968169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1347777968925237</v>
+        <v>0.1329231050338807</v>
       </c>
       <c r="C56">
-        <v>0.1008807987117314</v>
+        <v>-0.1246768787152221</v>
       </c>
       <c r="D56">
-        <v>-0.006502948706652092</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01359621430268772</v>
+      </c>
+      <c r="E56">
+        <v>-0.06019879893735448</v>
+      </c>
+      <c r="F56">
+        <v>0.01741591953920797</v>
+      </c>
+      <c r="G56">
+        <v>-0.06639186290349641</v>
+      </c>
+      <c r="H56">
+        <v>-0.02107688724040238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0372022998327009</v>
+        <v>0.03744830492168216</v>
       </c>
       <c r="C58">
-        <v>-0.0341961050196567</v>
+        <v>-0.01550031525519913</v>
       </c>
       <c r="D58">
-        <v>-0.3933486333044338</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3771240332087648</v>
+      </c>
+      <c r="E58">
+        <v>-0.2224417838095406</v>
+      </c>
+      <c r="F58">
+        <v>0.1266328109301915</v>
+      </c>
+      <c r="G58">
+        <v>0.3790464500118774</v>
+      </c>
+      <c r="H58">
+        <v>-0.4354485293894861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1378822516764386</v>
+        <v>0.1692028605306505</v>
       </c>
       <c r="C59">
-        <v>-0.1965289444345078</v>
+        <v>0.1742675089883587</v>
       </c>
       <c r="D59">
-        <v>-0.00879206322770151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04338903609947653</v>
+      </c>
+      <c r="E59">
+        <v>-0.01731072105063033</v>
+      </c>
+      <c r="F59">
+        <v>-0.03538710065507921</v>
+      </c>
+      <c r="G59">
+        <v>0.001039852124814728</v>
+      </c>
+      <c r="H59">
+        <v>-0.02240217512286027</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2594463987144656</v>
+        <v>0.2351701852674651</v>
       </c>
       <c r="C60">
-        <v>0.05597388237015789</v>
+        <v>-0.09186096650725295</v>
       </c>
       <c r="D60">
-        <v>-0.1596880719318825</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1227472745948784</v>
+      </c>
+      <c r="E60">
+        <v>0.3524924280480742</v>
+      </c>
+      <c r="F60">
+        <v>0.08161454244989427</v>
+      </c>
+      <c r="G60">
+        <v>-0.02322337856736378</v>
+      </c>
+      <c r="H60">
+        <v>-0.06005592811470391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04594422607673267</v>
+        <v>0.04202060286731988</v>
       </c>
       <c r="C61">
-        <v>0.04510095753802893</v>
+        <v>-0.05717120963249965</v>
       </c>
       <c r="D61">
-        <v>-0.09990463629652467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09582893584529299</v>
+      </c>
+      <c r="E61">
+        <v>-0.01958235420503011</v>
+      </c>
+      <c r="F61">
+        <v>-0.01057437304480314</v>
+      </c>
+      <c r="G61">
+        <v>-0.01248243843937484</v>
+      </c>
+      <c r="H61">
+        <v>0.07853501238225034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01529045539666911</v>
+        <v>0.01554462539692687</v>
       </c>
       <c r="C63">
-        <v>0.0151914536525699</v>
+        <v>-0.02973966043752535</v>
       </c>
       <c r="D63">
-        <v>-0.0616167269367294</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07059237722789656</v>
+      </c>
+      <c r="E63">
+        <v>-0.0513591711577757</v>
+      </c>
+      <c r="F63">
+        <v>0.02375990007035315</v>
+      </c>
+      <c r="G63">
+        <v>0.01092334487526409</v>
+      </c>
+      <c r="H63">
+        <v>0.04513224617826263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0550185239108392</v>
+        <v>0.05511262958570864</v>
       </c>
       <c r="C64">
-        <v>0.05855831160141486</v>
+        <v>-0.07677276329185082</v>
       </c>
       <c r="D64">
-        <v>-0.0627147636937106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05633434676965358</v>
+      </c>
+      <c r="E64">
+        <v>-0.03744803065594388</v>
+      </c>
+      <c r="F64">
+        <v>-0.01936614824078468</v>
+      </c>
+      <c r="G64">
+        <v>-0.042308582218529</v>
+      </c>
+      <c r="H64">
+        <v>0.05023680426995239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06145310677264197</v>
+        <v>0.05258262582635972</v>
       </c>
       <c r="C65">
-        <v>0.001222945601302581</v>
+        <v>-0.02533465901948189</v>
       </c>
       <c r="D65">
-        <v>-0.1158228055195171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1207235886346634</v>
+      </c>
+      <c r="E65">
+        <v>-0.007397797469254503</v>
+      </c>
+      <c r="F65">
+        <v>0.02153586218119926</v>
+      </c>
+      <c r="G65">
+        <v>0.03888725195818048</v>
+      </c>
+      <c r="H65">
+        <v>-0.03356768128205532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04495086529515046</v>
+        <v>0.04386490357339659</v>
       </c>
       <c r="C66">
-        <v>0.04626642572931724</v>
+        <v>-0.06832467101584269</v>
       </c>
       <c r="D66">
-        <v>-0.1150156993355323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.12905796151544</v>
+      </c>
+      <c r="E66">
+        <v>-0.0238267745184727</v>
+      </c>
+      <c r="F66">
+        <v>-0.01277880774360173</v>
+      </c>
+      <c r="G66">
+        <v>0.01108954264525817</v>
+      </c>
+      <c r="H66">
+        <v>0.0628908702060125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04540352458587681</v>
+        <v>0.03844649817990663</v>
       </c>
       <c r="C67">
-        <v>0.02590164159710059</v>
+        <v>-0.02660089901671099</v>
       </c>
       <c r="D67">
-        <v>-0.02646389275072961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02310477096732975</v>
+      </c>
+      <c r="E67">
+        <v>-0.02787652408207284</v>
+      </c>
+      <c r="F67">
+        <v>0.001659774527109586</v>
+      </c>
+      <c r="G67">
+        <v>0.03047959649208134</v>
+      </c>
+      <c r="H67">
+        <v>0.03675656056434193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1690491527135854</v>
+        <v>0.1921760395576187</v>
       </c>
       <c r="C68">
-        <v>-0.2617321467675424</v>
+        <v>0.2105058516996275</v>
       </c>
       <c r="D68">
-        <v>0.03012518528328535</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01401346830033693</v>
+      </c>
+      <c r="E68">
+        <v>-0.0526213091255433</v>
+      </c>
+      <c r="F68">
+        <v>0.02355025914527737</v>
+      </c>
+      <c r="G68">
+        <v>0.006987910486856751</v>
+      </c>
+      <c r="H68">
+        <v>-0.008874516507136094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08563773459157713</v>
+        <v>0.07862856168063002</v>
       </c>
       <c r="C69">
-        <v>0.07688933064194699</v>
+        <v>-0.09727445249114461</v>
       </c>
       <c r="D69">
-        <v>-0.05443402531918665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04682053824937679</v>
+      </c>
+      <c r="E69">
+        <v>-0.03077423264335345</v>
+      </c>
+      <c r="F69">
+        <v>0.001041234368287647</v>
+      </c>
+      <c r="G69">
+        <v>-0.03897243616198307</v>
+      </c>
+      <c r="H69">
+        <v>0.02268668736573268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1409540284837735</v>
+        <v>0.1759982471163612</v>
       </c>
       <c r="C71">
-        <v>-0.2512744384837971</v>
+        <v>0.2224746431336262</v>
       </c>
       <c r="D71">
-        <v>-0.004509846740654196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03286330807759561</v>
+      </c>
+      <c r="E71">
+        <v>-0.05172042621694721</v>
+      </c>
+      <c r="F71">
+        <v>0.02087276165110305</v>
+      </c>
+      <c r="G71">
+        <v>-0.0375961314159511</v>
+      </c>
+      <c r="H71">
+        <v>0.01469252297810507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09853788506181192</v>
+        <v>0.1018720556763762</v>
       </c>
       <c r="C72">
-        <v>0.03441270305779649</v>
+        <v>-0.0619726338927605</v>
       </c>
       <c r="D72">
-        <v>-0.09505188679844648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09663099379257327</v>
+      </c>
+      <c r="E72">
+        <v>0.02451661138926792</v>
+      </c>
+      <c r="F72">
+        <v>0.03319969019985113</v>
+      </c>
+      <c r="G72">
+        <v>-0.02141554988755292</v>
+      </c>
+      <c r="H72">
+        <v>0.02757173995209166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3165161734153972</v>
+        <v>0.2677027831200789</v>
       </c>
       <c r="C73">
-        <v>0.009056831138004564</v>
+        <v>-0.0759057476323983</v>
       </c>
       <c r="D73">
-        <v>-0.2777793775765693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.2011737056512114</v>
+      </c>
+      <c r="E73">
+        <v>0.6706402599182714</v>
+      </c>
+      <c r="F73">
+        <v>0.09850712125369288</v>
+      </c>
+      <c r="G73">
+        <v>0.03376049904055672</v>
+      </c>
+      <c r="H73">
+        <v>-0.1095843476660987</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1035472674830313</v>
+        <v>0.1023460276969613</v>
       </c>
       <c r="C74">
-        <v>0.06332535803058557</v>
+        <v>-0.08849409779452147</v>
       </c>
       <c r="D74">
-        <v>-0.01876297523350783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00292326394674642</v>
+      </c>
+      <c r="E74">
+        <v>-0.0838997635821952</v>
+      </c>
+      <c r="F74">
+        <v>0.04068857235659835</v>
+      </c>
+      <c r="G74">
+        <v>-0.06212359884477077</v>
+      </c>
+      <c r="H74">
+        <v>-0.05563726464069051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2431786864899103</v>
+        <v>0.2382500669158633</v>
       </c>
       <c r="C75">
-        <v>0.1426599070997771</v>
+        <v>-0.1670249292196765</v>
       </c>
       <c r="D75">
-        <v>0.05879555326871036</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.106830092887228</v>
+      </c>
+      <c r="E75">
+        <v>-0.07231846914587332</v>
+      </c>
+      <c r="F75">
+        <v>-0.009751895365538173</v>
+      </c>
+      <c r="G75">
+        <v>-0.1017171968030705</v>
+      </c>
+      <c r="H75">
+        <v>-0.1491879899935138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1250820811325093</v>
+        <v>0.1265626651864327</v>
       </c>
       <c r="C76">
-        <v>0.09004401445365579</v>
+        <v>-0.1126795729551085</v>
       </c>
       <c r="D76">
-        <v>0.005953437970818195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02128423603366812</v>
+      </c>
+      <c r="E76">
+        <v>-0.1155768731095451</v>
+      </c>
+      <c r="F76">
+        <v>0.01152187553065005</v>
+      </c>
+      <c r="G76">
+        <v>-0.0641259531923517</v>
+      </c>
+      <c r="H76">
+        <v>-0.02289589843922309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07339269593475289</v>
+        <v>0.06618700394167182</v>
       </c>
       <c r="C77">
-        <v>0.05397000823713587</v>
+        <v>-0.06547125284507173</v>
       </c>
       <c r="D77">
-        <v>-0.07243259052733976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1302580350884524</v>
+      </c>
+      <c r="E77">
+        <v>-0.1204429597333023</v>
+      </c>
+      <c r="F77">
+        <v>-0.2902696472539605</v>
+      </c>
+      <c r="G77">
+        <v>0.02973133682234265</v>
+      </c>
+      <c r="H77">
+        <v>-0.2054226551984154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03708702011545344</v>
+        <v>0.04013482884167106</v>
       </c>
       <c r="C78">
-        <v>0.04002431016829956</v>
+        <v>-0.05979601348070659</v>
       </c>
       <c r="D78">
-        <v>-0.1108018687560108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1248402829871001</v>
+      </c>
+      <c r="E78">
+        <v>-0.03020249101606275</v>
+      </c>
+      <c r="F78">
+        <v>0.01779921563171177</v>
+      </c>
+      <c r="G78">
+        <v>-0.02927147136188238</v>
+      </c>
+      <c r="H78">
+        <v>0.04524201936368853</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001978683535939658</v>
+        <v>0.04111833965624815</v>
       </c>
       <c r="C79">
-        <v>-0.001510306159701279</v>
+        <v>-0.0845713647309054</v>
       </c>
       <c r="D79">
-        <v>-0.01753488822269998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03117071354251468</v>
+      </c>
+      <c r="E79">
+        <v>-0.1660586934623023</v>
+      </c>
+      <c r="F79">
+        <v>0.07552872008390808</v>
+      </c>
+      <c r="G79">
+        <v>-0.5625173369441794</v>
+      </c>
+      <c r="H79">
+        <v>-0.4761854169884928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02996870199872514</v>
+        <v>0.02500306666834418</v>
       </c>
       <c r="C80">
-        <v>0.01416256125483705</v>
+        <v>-0.03606713422135497</v>
       </c>
       <c r="D80">
-        <v>-0.02941773752133727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03742484963099481</v>
+      </c>
+      <c r="E80">
+        <v>-0.0180689972703279</v>
+      </c>
+      <c r="F80">
+        <v>-0.04056112659707126</v>
+      </c>
+      <c r="G80">
+        <v>0.04607574074747715</v>
+      </c>
+      <c r="H80">
+        <v>0.04307890577589747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1395352416578283</v>
+        <v>0.1318503782623601</v>
       </c>
       <c r="C81">
-        <v>0.09896392928840189</v>
+        <v>-0.1179229277011961</v>
       </c>
       <c r="D81">
-        <v>0.04945729240107687</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07050500607146332</v>
+      </c>
+      <c r="E81">
+        <v>-0.1120455946931957</v>
+      </c>
+      <c r="F81">
+        <v>0.002708551439648942</v>
+      </c>
+      <c r="G81">
+        <v>-0.05515037307692822</v>
+      </c>
+      <c r="H81">
+        <v>-0.05028096640005032</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2814012582328374</v>
+        <v>0.2488336017748408</v>
       </c>
       <c r="C82">
-        <v>0.2683784414728967</v>
+        <v>-0.2478861799690485</v>
       </c>
       <c r="D82">
-        <v>0.213265763929672</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2193408424323883</v>
+      </c>
+      <c r="E82">
+        <v>-0.004584748500660831</v>
+      </c>
+      <c r="F82">
+        <v>0.03638249010426629</v>
+      </c>
+      <c r="G82">
+        <v>-0.2276512611758252</v>
+      </c>
+      <c r="H82">
+        <v>0.4644290353492189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0287131034273169</v>
+        <v>0.02325762215470584</v>
       </c>
       <c r="C83">
-        <v>0.04593689031991474</v>
+        <v>-0.05019138735466601</v>
       </c>
       <c r="D83">
-        <v>-0.05363985579905314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05063880743023041</v>
+      </c>
+      <c r="E83">
+        <v>-0.006989902173950407</v>
+      </c>
+      <c r="F83">
+        <v>-0.02477102081055855</v>
+      </c>
+      <c r="G83">
+        <v>-0.001391457937220939</v>
+      </c>
+      <c r="H83">
+        <v>0.03101578677497877</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.073821747246931e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00436988200083628</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.009572392002375123</v>
+      </c>
+      <c r="E84">
+        <v>-0.01067970950346538</v>
+      </c>
+      <c r="F84">
+        <v>0.003458239928213982</v>
+      </c>
+      <c r="G84">
+        <v>0.008477348901977004</v>
+      </c>
+      <c r="H84">
+        <v>0.004873274937857826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1812905116507153</v>
+        <v>0.163449534749776</v>
       </c>
       <c r="C85">
-        <v>0.09883267567716761</v>
+        <v>-0.1313279611727883</v>
       </c>
       <c r="D85">
-        <v>0.04594114892835052</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.07777598837712253</v>
+      </c>
+      <c r="E85">
+        <v>-0.04029562472565744</v>
+      </c>
+      <c r="F85">
+        <v>0.03329306567525418</v>
+      </c>
+      <c r="G85">
+        <v>-0.09989719653444785</v>
+      </c>
+      <c r="H85">
+        <v>-0.1228133186712685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01251733311319456</v>
+        <v>0.01878847526001419</v>
       </c>
       <c r="C86">
-        <v>0.02174583188858275</v>
+        <v>-0.02080267899034021</v>
       </c>
       <c r="D86">
-        <v>-0.1361489448859447</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1237268861680471</v>
+      </c>
+      <c r="E86">
+        <v>-0.0169714106265905</v>
+      </c>
+      <c r="F86">
+        <v>-0.009156246499510842</v>
+      </c>
+      <c r="G86">
+        <v>-0.03312964803084395</v>
+      </c>
+      <c r="H86">
+        <v>0.07475116800657193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02580715784982324</v>
+        <v>0.03174476010554921</v>
       </c>
       <c r="C87">
-        <v>-0.001608586957889455</v>
+        <v>-0.02423531629278552</v>
       </c>
       <c r="D87">
-        <v>-0.08828730887163802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1255546725433644</v>
+      </c>
+      <c r="E87">
+        <v>-0.08782820543759336</v>
+      </c>
+      <c r="F87">
+        <v>-0.02087783850054109</v>
+      </c>
+      <c r="G87">
+        <v>0.00793978321961133</v>
+      </c>
+      <c r="H87">
+        <v>0.03527739244330069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08344337168834073</v>
+        <v>0.07456601925320418</v>
       </c>
       <c r="C88">
-        <v>0.04105032053312248</v>
+        <v>-0.05706541179379339</v>
       </c>
       <c r="D88">
-        <v>-0.04349496846861955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02682267551209825</v>
+      </c>
+      <c r="E88">
+        <v>-0.02967252952453256</v>
+      </c>
+      <c r="F88">
+        <v>0.00469248714738426</v>
+      </c>
+      <c r="G88">
+        <v>0.01112608125996068</v>
+      </c>
+      <c r="H88">
+        <v>0.01563980862543404</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2034750806373636</v>
+        <v>0.2629466046701792</v>
       </c>
       <c r="C89">
-        <v>-0.3567959298257738</v>
+        <v>0.3551781333563614</v>
       </c>
       <c r="D89">
-        <v>0.05981272195744446</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01385128516677431</v>
+      </c>
+      <c r="E89">
+        <v>-0.06493213625761958</v>
+      </c>
+      <c r="F89">
+        <v>-0.04920847203475099</v>
+      </c>
+      <c r="G89">
+        <v>-0.02758830080931544</v>
+      </c>
+      <c r="H89">
+        <v>0.06290751462170011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1980141962698287</v>
+        <v>0.2326536403718976</v>
       </c>
       <c r="C90">
-        <v>-0.2896929705958797</v>
+        <v>0.266735239090241</v>
       </c>
       <c r="D90">
-        <v>0.05941005181181168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005154394895876723</v>
+      </c>
+      <c r="E90">
+        <v>-0.05670249669656347</v>
+      </c>
+      <c r="F90">
+        <v>0.001925326979571888</v>
+      </c>
+      <c r="G90">
+        <v>0.03855787984582191</v>
+      </c>
+      <c r="H90">
+        <v>0.0473483285558728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1794848502297941</v>
+        <v>0.1685842602503941</v>
       </c>
       <c r="C91">
-        <v>0.1377136349239784</v>
+        <v>-0.1586615752132611</v>
       </c>
       <c r="D91">
-        <v>0.06296551033789836</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08533642051823363</v>
+      </c>
+      <c r="E91">
+        <v>-0.09635324388072489</v>
+      </c>
+      <c r="F91">
+        <v>0.0152522430883536</v>
+      </c>
+      <c r="G91">
+        <v>-0.08938903313443708</v>
+      </c>
+      <c r="H91">
+        <v>-0.1336259066664957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1655408451265061</v>
+        <v>0.2093831510219921</v>
       </c>
       <c r="C92">
-        <v>-0.2889406282384865</v>
+        <v>0.2768460735212385</v>
       </c>
       <c r="D92">
-        <v>0.01984594552229014</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0112796119623477</v>
+      </c>
+      <c r="E92">
+        <v>-0.08769113518486547</v>
+      </c>
+      <c r="F92">
+        <v>-0.03477297464377734</v>
+      </c>
+      <c r="G92">
+        <v>4.280855140717761e-05</v>
+      </c>
+      <c r="H92">
+        <v>0.03195696905546621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2286245541351112</v>
+        <v>0.2563195643329547</v>
       </c>
       <c r="C93">
-        <v>-0.3184331107979491</v>
+        <v>0.2791834620959264</v>
       </c>
       <c r="D93">
-        <v>0.04006911164926058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01636598039020581</v>
+      </c>
+      <c r="E93">
+        <v>-0.0277287602076677</v>
+      </c>
+      <c r="F93">
+        <v>0.03256695714894774</v>
+      </c>
+      <c r="G93">
+        <v>-0.01077551988331811</v>
+      </c>
+      <c r="H93">
+        <v>0.008778442049615986</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.386031996347747</v>
+        <v>0.3365725772430211</v>
       </c>
       <c r="C94">
-        <v>0.2641345613578752</v>
+        <v>-0.25953867826165</v>
       </c>
       <c r="D94">
-        <v>0.4537826314772759</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4421322920274671</v>
+      </c>
+      <c r="E94">
+        <v>-0.1097968412964642</v>
+      </c>
+      <c r="F94">
+        <v>-0.02814621045908901</v>
+      </c>
+      <c r="G94">
+        <v>0.6081524963202829</v>
+      </c>
+      <c r="H94">
+        <v>-0.05719771863332634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08495581368407233</v>
+        <v>0.07345656845428532</v>
       </c>
       <c r="C95">
-        <v>0.06696029806108295</v>
+        <v>-0.05937326826805629</v>
       </c>
       <c r="D95">
-        <v>-0.1265728364214229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08782972743072257</v>
+      </c>
+      <c r="E95">
+        <v>0.106255425110503</v>
+      </c>
+      <c r="F95">
+        <v>-0.907677601281248</v>
+      </c>
+      <c r="G95">
+        <v>-0.03055875122002863</v>
+      </c>
+      <c r="H95">
+        <v>-0.05219400516262165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1793248481016932</v>
+        <v>0.1676834640475066</v>
       </c>
       <c r="C98">
-        <v>0.01005842457879935</v>
+        <v>-0.05234424364828324</v>
       </c>
       <c r="D98">
-        <v>-0.1499603420876021</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.134903251529984</v>
+      </c>
+      <c r="E98">
+        <v>0.2928533410746506</v>
+      </c>
+      <c r="F98">
+        <v>0.08640399127005649</v>
+      </c>
+      <c r="G98">
+        <v>-0.02958372693525253</v>
+      </c>
+      <c r="H98">
+        <v>-0.01578418072139285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003763383468464361</v>
+        <v>0.006526428284404071</v>
       </c>
       <c r="C101">
-        <v>0.01133903121515808</v>
+        <v>-0.02127526887997119</v>
       </c>
       <c r="D101">
-        <v>-0.06132009808343761</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07832851104235729</v>
+      </c>
+      <c r="E101">
+        <v>-0.04564278315191882</v>
+      </c>
+      <c r="F101">
+        <v>-0.0007163297383036526</v>
+      </c>
+      <c r="G101">
+        <v>-0.01384756091054989</v>
+      </c>
+      <c r="H101">
+        <v>0.1020859174453546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1263420609652306</v>
+        <v>0.1126371286658189</v>
       </c>
       <c r="C102">
-        <v>0.1192710912123105</v>
+        <v>-0.1187007944435349</v>
       </c>
       <c r="D102">
-        <v>0.03185823387341085</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04914126449965325</v>
+      </c>
+      <c r="E102">
+        <v>-0.0305732022350188</v>
+      </c>
+      <c r="F102">
+        <v>-0.02102374766239462</v>
+      </c>
+      <c r="G102">
+        <v>-0.05904573029138931</v>
+      </c>
+      <c r="H102">
+        <v>0.009609002153740893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
